--- a/SoftwareRequirment.xlsx
+++ b/SoftwareRequirment.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anjani\TaxConsultionOfficeManagement\TaxConsultingOfficeManagmement\TaxConsultencyOfficeManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AnuragStudy\jwt-spring\TaxConsultencyOfficeManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848BE2A8-4EB6-41C4-80C6-4BB380235263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD46C0B-2216-4F78-8EC8-9348E005D102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="14" xr2:uid="{CD00193F-9A11-4B8F-B22A-766C7E14F037}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{CD00193F-9A11-4B8F-B22A-766C7E14F037}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="12" r:id="rId1"/>
     <sheet name="Functionality" sheetId="7" r:id="rId2"/>
-    <sheet name="API_DESGIN" sheetId="14" r:id="rId3"/>
+    <sheet name="API_DESIGN" sheetId="14" r:id="rId3"/>
     <sheet name="PACKAGE_DESIGN" sheetId="15" r:id="rId4"/>
     <sheet name="Employee_Detail" sheetId="5" r:id="rId5"/>
     <sheet name="Employee_Role" sheetId="6" r:id="rId6"/>
@@ -29,7 +29,7 @@
     <sheet name="Open Question" sheetId="11" r:id="rId14"/>
     <sheet name="Practice_Interview" sheetId="13" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="104">
   <si>
     <t>Name</t>
   </si>
@@ -287,9 +287,6 @@
     <t xml:space="preserve">Gov entity :10 </t>
   </si>
   <si>
-    <t>Customer API</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -315,13 +312,76 @@
   </si>
   <si>
     <t>System Desgin</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>METHOD</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">API DESIGN
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Guide lines :- https://restfulapi.net/resource-naming/
+Application-Context-Path:- /mtax</t>
+    </r>
+  </si>
+  <si>
+    <t>Name Of Module</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/employee/sign
+/employee/signup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sign in /  Sign UP
+</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>*all</t>
+  </si>
+  <si>
+    <t>Employer/Organization</t>
+  </si>
+  <si>
+    <t>/organizations
+/organizations
+/organizations/{organization-id}
+/organizations/{organization-id}
+/organizations/{organization-id}</t>
+  </si>
+  <si>
+    <t>POST
+GET
+GET
+DELETE
+PUT</t>
+  </si>
+  <si>
+    <t>ADMIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,16 +389,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -346,11 +431,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,8 +479,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -678,38 +820,38 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -727,13 +869,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -741,33 +883,33 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -775,12 +917,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -788,27 +930,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -829,62 +971,62 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -902,22 +1044,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.81640625" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -935,52 +1077,52 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.81640625" customWidth="1"/>
+    <col min="1" max="1" width="44.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -998,17 +1140,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.7265625" customWidth="1"/>
+    <col min="1" max="1" width="69.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -1022,53 +1164,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCBE582-41C1-4E8C-AA51-E593EBEC3FD7}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" customWidth="1"/>
+    <col min="1" max="1" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="35.08984375" customWidth="1"/>
-    <col min="5" max="5" width="26.81640625" customWidth="1"/>
-    <col min="6" max="6" width="29.54296875" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.77734375" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>84</v>
       </c>
-      <c r="C1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1084,18 +1226,18 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.08984375" customWidth="1"/>
-    <col min="3" max="3" width="44.36328125" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1103,7 +1245,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1111,7 +1253,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1119,7 +1261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1127,7 +1269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1135,7 +1277,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1143,7 +1285,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1151,7 +1293,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1159,7 +1301,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1171,36 +1313,82 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B407ACD3-4B37-492A-8FA0-C86C5BA19DD5}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="148.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H13" s="1"/>
+    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="8" customFormat="1" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1218,7 +1406,7 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1232,12 +1420,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -1245,49 +1433,49 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1308,34 +1496,34 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.90625" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1356,12 +1544,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.08984375" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1369,54 +1557,54 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1437,13 +1625,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7265625" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="29.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1451,34 +1639,34 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1486,22 +1674,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1522,12 +1710,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
@@ -1535,28 +1723,28 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>

--- a/SoftwareRequirment.xlsx
+++ b/SoftwareRequirment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AnuragStudy\jwt-spring\TaxConsultencyOfficeManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD46C0B-2216-4F78-8EC8-9348E005D102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D636F9F3-CAAC-448E-8A27-5F73CA186712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{CD00193F-9A11-4B8F-B22A-766C7E14F037}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -343,10 +343,6 @@
     <t>POST</t>
   </si>
   <si>
-    <t>/employee/sign
-/employee/signup</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sign in /  Sign UP
 </t>
   </si>
@@ -375,6 +371,17 @@
   </si>
   <si>
     <t>ADMIN</t>
+  </si>
+  <si>
+    <t>/employees
+/employees
+/employees/{employee-id}
+/employees/{employee-id}
+/employees/{employee-id}</t>
+  </si>
+  <si>
+    <t>/sign
+/signup</t>
   </si>
 </sst>
 </file>
@@ -476,12 +483,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -495,10 +496,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -876,18 +883,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1223,7 +1230,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1316,7 +1323,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1326,65 +1333,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="8" t="s">
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="7" t="s">
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>103</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1426,24 +1447,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1502,16 +1523,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1550,24 +1571,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1632,24 +1653,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1716,18 +1737,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">

--- a/SoftwareRequirment.xlsx
+++ b/SoftwareRequirment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AnuragStudy\jwt-spring\TaxConsultencyOfficeManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D636F9F3-CAAC-448E-8A27-5F73CA186712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872B3FD9-5D91-4BBC-A0BB-AA20145E574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{CD00193F-9A11-4B8F-B22A-766C7E14F037}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -382,6 +382,28 @@
   <si>
     <t>/sign
 /signup</t>
+  </si>
+  <si>
+    <t>Tds-Customer</t>
+  </si>
+  <si>
+    <t>EMPLOYEE</t>
+  </si>
+  <si>
+    <t>POST
+GET
+GET
+DELETE
+PUT
+GET</t>
+  </si>
+  <si>
+    <t>/tds-customers
+/tds-customers
+/tds-customers/{tds-customer-id}
+/tds-customers/{tds-customer-id}
+/tds-customers/{tds-customer-id}
+/tds-customers?name=""&amp;year=""&amp;month=""</t>
   </si>
 </sst>
 </file>
@@ -1323,13 +1345,14 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.44140625" customWidth="1"/>
     <col min="3" max="3" width="148.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1406,6 +1429,20 @@
       </c>
       <c r="D7" s="6" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">

--- a/SoftwareRequirment.xlsx
+++ b/SoftwareRequirment.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AnuragStudy\jwt-spring\TaxConsultencyOfficeManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anjani\TaxConsultionOfficeManagement\TaxConsultingOfficeManagmement\TaxConsultencyOfficeManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872B3FD9-5D91-4BBC-A0BB-AA20145E574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB09A0E0-5EB9-4C5E-9D98-BFDBFACC764E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{CD00193F-9A11-4B8F-B22A-766C7E14F037}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{CD00193F-9A11-4B8F-B22A-766C7E14F037}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="12" r:id="rId1"/>
@@ -849,12 +849,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -862,7 +862,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -870,17 +870,17 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -898,13 +898,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
@@ -912,33 +912,33 @@
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -946,12 +946,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -959,27 +959,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1000,62 +1000,62 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -1073,22 +1073,22 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -1106,52 +1106,52 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.77734375" customWidth="1"/>
+    <col min="1" max="1" width="44.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -1169,17 +1169,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="69.77734375" customWidth="1"/>
+    <col min="1" max="1" width="69.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -1197,17 +1197,17 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" customWidth="1"/>
-    <col min="5" max="5" width="26.77734375" customWidth="1"/>
-    <col min="6" max="6" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="35.08984375" customWidth="1"/>
+    <col min="5" max="5" width="26.81640625" customWidth="1"/>
+    <col min="6" max="6" width="29.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -1227,17 +1227,17 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>86</v>
       </c>
@@ -1255,18 +1255,18 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="57.109375" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="2" max="2" width="57.08984375" customWidth="1"/>
+    <col min="3" max="3" width="44.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1344,18 +1344,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B407ACD3-4B37-492A-8FA0-C86C5BA19DD5}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="148.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" customWidth="1"/>
+    <col min="3" max="3" width="148.90625" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>93</v>
       </c>
@@ -1363,19 +1363,19 @@
       <c r="C1" s="8"/>
       <c r="D1" s="7"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>94</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>96</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>99</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>36</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="84.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>105</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="H14" s="1"/>
     </row>
   </sheetData>
@@ -1464,7 +1464,7 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1478,12 +1478,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>20</v>
       </c>
@@ -1491,49 +1491,49 @@
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1554,34 +1554,34 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1602,12 +1602,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="26.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
@@ -1615,54 +1615,54 @@
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1683,13 +1683,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
@@ -1697,34 +1697,34 @@
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1732,22 +1732,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1768,12 +1768,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>49</v>
       </c>
@@ -1781,28 +1781,28 @@
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>51</v>
       </c>

--- a/SoftwareRequirment.xlsx
+++ b/SoftwareRequirment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anjani\TaxConsultionOfficeManagement\TaxConsultingOfficeManagmement\TaxConsultencyOfficeManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB09A0E0-5EB9-4C5E-9D98-BFDBFACC764E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300ECD7F-26DF-4BC7-8F94-FAA33855A4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{CD00193F-9A11-4B8F-B22A-766C7E14F037}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{CD00193F-9A11-4B8F-B22A-766C7E14F037}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="12" r:id="rId1"/>
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B407ACD3-4B37-492A-8FA0-C86C5BA19DD5}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1598,7 +1598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B9D1D6-7050-4F34-BBEF-C07DD4000C89}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/SoftwareRequirment.xlsx
+++ b/SoftwareRequirment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anjani\TaxConsultionOfficeManagement\TaxConsultingOfficeManagmement\TaxConsultencyOfficeManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300ECD7F-26DF-4BC7-8F94-FAA33855A4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55780BCF-66E8-4E9B-986B-55E6B5D615B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="6" xr2:uid="{CD00193F-9A11-4B8F-B22A-766C7E14F037}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{CD00193F-9A11-4B8F-B22A-766C7E14F037}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -404,6 +404,15 @@
 /tds-customers/{tds-customer-id}
 /tds-customers/{tds-customer-id}
 /tds-customers?name=""&amp;year=""&amp;month=""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restore Deactivated Entity </t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>/restore/tds-customers/{tds-customer-id}</t>
   </si>
 </sst>
 </file>
@@ -500,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -527,6 +536,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1344,8 +1359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B407ACD3-4B37-492A-8FA0-C86C5BA19DD5}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1443,6 +1458,17 @@
       </c>
       <c r="D8" s="6" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1598,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B9D1D6-7050-4F34-BBEF-C07DD4000C89}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/SoftwareRequirment.xlsx
+++ b/SoftwareRequirment.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anjani\TaxConsultionOfficeManagement\TaxConsultingOfficeManagmement\TaxConsultencyOfficeManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anjani\Project\AWS\iSoft\Tax_Managemnt\TaxConsultencyOfficeManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55780BCF-66E8-4E9B-986B-55E6B5D615B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{CD00193F-9A11-4B8F-B22A-766C7E14F037}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="12" r:id="rId1"/>
@@ -28,8 +27,10 @@
     <sheet name="Functality" sheetId="10" r:id="rId13"/>
     <sheet name="Open Question" sheetId="11" r:id="rId14"/>
     <sheet name="Practice_Interview" sheetId="13" r:id="rId15"/>
+    <sheet name="MicroServices Prposal" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="231">
   <si>
     <t>Name</t>
   </si>
@@ -414,12 +415,369 @@
   <si>
     <t>/restore/tds-customers/{tds-customer-id}</t>
   </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Key Features</t>
+  </si>
+  <si>
+    <t>Service Frameworks</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+  </si>
+  <si>
+    <t>Framework for building Java-based microservices</t>
+  </si>
+  <si>
+    <t>Embedded server, RESTful services, auto-configuration, actuator, and security</t>
+  </si>
+  <si>
+    <t>Service Discovery</t>
+  </si>
+  <si>
+    <t>Consul</t>
+  </si>
+  <si>
+    <t>Service discovery and configuration</t>
+  </si>
+  <si>
+    <t>DNS-based service discovery, health checking, KV store</t>
+  </si>
+  <si>
+    <t>Eureka</t>
+  </si>
+  <si>
+    <t>Service registry for resilient load balancing and failover</t>
+  </si>
+  <si>
+    <t>Instance registration and discovery, self-preservation</t>
+  </si>
+  <si>
+    <t>API Gateway</t>
+  </si>
+  <si>
+    <t>Zuul</t>
+  </si>
+  <si>
+    <t>Edge service that provides dynamic routing, monitoring, etc.</t>
+  </si>
+  <si>
+    <t>Routing, filtering, monitoring, security</t>
+  </si>
+  <si>
+    <t>Kong</t>
+  </si>
+  <si>
+    <t>API gateway and microservices management layer</t>
+  </si>
+  <si>
+    <t>Plugins, load balancing, monitoring, security</t>
+  </si>
+  <si>
+    <t>Load Balancing</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>Client-side load balancer with pluggable routing algorithms</t>
+  </si>
+  <si>
+    <t>Load balancing, fault tolerance</t>
+  </si>
+  <si>
+    <t>HAProxy</t>
+  </si>
+  <si>
+    <t>Reliable, high performance TCP/HTTP load balancer</t>
+  </si>
+  <si>
+    <t>Load balancing, SSL termination, health checks</t>
+  </si>
+  <si>
+    <t>Envoy</t>
+  </si>
+  <si>
+    <t>Edge and service proxy for cloud-native application</t>
+  </si>
+  <si>
+    <t>Load balancing, service discovery, observability</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Spring Cloud Config</t>
+  </si>
+  <si>
+    <t>Centralized external configuration management</t>
+  </si>
+  <si>
+    <t>Supports Git, HTTP API, encryption/decryption</t>
+  </si>
+  <si>
+    <t>Consul KV</t>
+  </si>
+  <si>
+    <t>Key-value store for configuration and service discovery</t>
+  </si>
+  <si>
+    <t>Simple key-value storage, hierarchical data, watch API</t>
+  </si>
+  <si>
+    <t>etcd</t>
+  </si>
+  <si>
+    <t>Distributed reliable key-value store</t>
+  </si>
+  <si>
+    <t>Strong consistency, high availability, watch API</t>
+  </si>
+  <si>
+    <t>Fault Tolerance</t>
+  </si>
+  <si>
+    <t>Resilience4j</t>
+  </si>
+  <si>
+    <t>Fault tolerance library inspired by Netflix Hystrix</t>
+  </si>
+  <si>
+    <t>Circuit breaker, retry, rate limiter, bulkhead, time limiter</t>
+  </si>
+  <si>
+    <t>Hystrix</t>
+  </si>
+  <si>
+    <t>Latency and fault tolerance library</t>
+  </si>
+  <si>
+    <t>Circuit breaker, fallback, bulkhead, metrics</t>
+  </si>
+  <si>
+    <t>Messaging</t>
+  </si>
+  <si>
+    <t>RabbitMQ</t>
+  </si>
+  <si>
+    <t>Message broker that supports multiple messaging protocols</t>
+  </si>
+  <si>
+    <t>AMQP, flexible routing, reliable delivery, complex routing</t>
+  </si>
+  <si>
+    <t>Apache Kafka</t>
+  </si>
+  <si>
+    <t>Distributed event streaming platform</t>
+  </si>
+  <si>
+    <t>High throughput, durability, real-time data processing</t>
+  </si>
+  <si>
+    <t>ActiveMQ</t>
+  </si>
+  <si>
+    <t>Message broker written in Java</t>
+  </si>
+  <si>
+    <t>JMS, reliable delivery, flexible clustering</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>Relational database management system</t>
+  </si>
+  <si>
+    <t>ACID compliance, scalability, replication</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>Advanced object-relational database system</t>
+  </si>
+  <si>
+    <t>ACID compliance, extensibility, full-text search</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>NoSQL document-oriented database</t>
+  </si>
+  <si>
+    <t>High availability, scalability, flexible schema</t>
+  </si>
+  <si>
+    <t>Cassandra</t>
+  </si>
+  <si>
+    <t>Distributed NoSQL database</t>
+  </si>
+  <si>
+    <t>High availability, scalability, eventual consistency</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>Prometheus</t>
+  </si>
+  <si>
+    <t>Monitoring system and time series database</t>
+  </si>
+  <si>
+    <t>Multi-dimensional data model, flexible query language, alerting</t>
+  </si>
+  <si>
+    <t>Grafana</t>
+  </si>
+  <si>
+    <t>Visualization and analytics platform</t>
+  </si>
+  <si>
+    <t>Custom dashboards, alerting, data source integrations</t>
+  </si>
+  <si>
+    <t>ELK Stack (Elasticsearch, Logstash, Kibana)</t>
+  </si>
+  <si>
+    <t>Log and event management</t>
+  </si>
+  <si>
+    <t>Real-time search, log aggregation, visualization</t>
+  </si>
+  <si>
+    <t>Tracing</t>
+  </si>
+  <si>
+    <t>Jaeger</t>
+  </si>
+  <si>
+    <t>Distributed tracing system</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Context propagation, metrics, backend storage integrations</t>
+  </si>
+  <si>
+    <t>Zipkin</t>
+  </si>
+  <si>
+    <t>Context propagation, service dependency graph, latency analysis</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>OAuth2</t>
+  </si>
+  <si>
+    <t>Authorization framework</t>
+  </si>
+  <si>
+    <t>Token-based authentication, scopes, third-party application access</t>
+  </si>
+  <si>
+    <t>JWT (JSON Web Token)</t>
+  </si>
+  <si>
+    <t>Compact, URL-safe means of representing claims to be transferred</t>
+  </si>
+  <si>
+    <t>Token-based authentication, stateless sessions</t>
+  </si>
+  <si>
+    <t>Spring Security</t>
+  </si>
+  <si>
+    <t>Security framework for Java applications</t>
+  </si>
+  <si>
+    <t>Authentication, authorization, secure endpoints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microservice Architecture Prposed Technology </t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Docker</t>
+  </si>
+  <si>
+    <t>Containerization platform</t>
+  </si>
+  <si>
+    <t>Containerized applications, isolation, portability</t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>Container orchestration platform</t>
+  </si>
+  <si>
+    <t>Automated deployment, scaling, management of containerized applications</t>
+  </si>
+  <si>
+    <t>Helm</t>
+  </si>
+  <si>
+    <t>Kubernetes package manager</t>
+  </si>
+  <si>
+    <t>Manage Kubernetes applications, versioning, application reuse</t>
+  </si>
+  <si>
+    <t>CI/CD</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Automation server for continuous integration and delivery</t>
+  </si>
+  <si>
+    <t>Build automation, extensibility via plugins, pipelines</t>
+  </si>
+  <si>
+    <t>GitLab CI</t>
+  </si>
+  <si>
+    <t>Continuous integration and delivery built into GitLab</t>
+  </si>
+  <si>
+    <t>Integrated with GitLab, pipelines, Docker support</t>
+  </si>
+  <si>
+    <t>CircleCI</t>
+  </si>
+  <si>
+    <t>Cloud-based CI/CD platform</t>
+  </si>
+  <si>
+    <t>Easy setup, Docker support, parallel job execution</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,8 +799,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,8 +839,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -504,12 +895,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -528,6 +956,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -537,11 +971,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -857,7 +1331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D213E41-8F9D-49D9-9E70-EEDA59EA9F48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -906,7 +1380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC9785D-4E26-41CF-A201-F2743DAB3243}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -920,18 +1394,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1008,7 +1482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61635205-25EA-4D08-BC98-2680BED8EFA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1081,7 +1555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADF8D89-2E4F-43FA-8A1B-211214936242}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1114,7 +1588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F525A2-69FD-4E7C-AEE9-0C8DD926B446}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1177,7 +1651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6540B985-A4EA-4287-BE09-B5B5F3BC56EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1205,7 +1679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBCBE582-41C1-4E8C-AA51-E593EBEC3FD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1262,8 +1736,547 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:F41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="38.54296875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="42.26953125" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C1" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C3" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C5" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C6" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C7" s="15"/>
+      <c r="D7" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C8" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C9" s="15"/>
+      <c r="D9" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C10" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C11" s="21"/>
+      <c r="D11" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C12" s="15"/>
+      <c r="D12" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C13" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C14" s="21"/>
+      <c r="D14" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C15" s="15"/>
+      <c r="D15" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C16" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C17" s="15"/>
+      <c r="D17" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C18" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C19" s="21"/>
+      <c r="D19" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C20" s="15"/>
+      <c r="D20" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C21" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C22" s="21"/>
+      <c r="D22" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C23" s="21"/>
+      <c r="D23" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C24" s="15"/>
+      <c r="D24" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C25" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C26" s="21"/>
+      <c r="D26" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C27" s="15"/>
+      <c r="D27" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C28" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C29" s="15"/>
+      <c r="D29" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C30" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C31" s="21"/>
+      <c r="D31" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C32" s="15"/>
+      <c r="D32" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C33" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C34" s="21"/>
+      <c r="D34" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C35" s="15"/>
+      <c r="D35" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C36" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C37" s="21"/>
+      <c r="D37" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="C38" s="15"/>
+      <c r="D38" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C39" s="13"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C40" s="13"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C41" s="13"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="C6:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90028E2D-3B93-40D8-94FD-A8870E7B38D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1356,10 +2369,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B407ACD3-4B37-492A-8FA0-C86C5BA19DD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1371,23 +2384,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -1461,10 +2474,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C9" t="s">
@@ -1483,7 +2496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9952343A-379F-4046-AAB1-E424C85A607A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1497,7 +2510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F140DD3F-B7FA-490B-8F2F-72855FADEEDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1510,24 +2523,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1573,7 +2586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6069CA98-BDF4-4EB9-9F44-BD687976ECE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1586,16 +2599,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1621,7 +2634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B9D1D6-7050-4F34-BBEF-C07DD4000C89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1634,24 +2647,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1702,7 +2715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF5559B-E167-4BAB-8396-79F504F1F199}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1716,24 +2729,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1787,7 +2800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588925F7-E32A-43D1-9678-DF3060771EB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1800,18 +2813,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
